--- a/output.xlsx
+++ b/output.xlsx
@@ -25,24 +25,27 @@
     <t>Nisha</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nisha is always punctual and reliable.
-2. High quality of work and punctual.
-3. Very mature in handling people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Forgetting to inform people of delays
-2. Not being punctual
-3. Not being reliable</t>
+    <t xml:space="preserve">1. Reliable and punctual.
+2. High quality of work.
+3. Mature in handling people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nisha should improve on her communication with others, especially in regards to updates on her work progress or delays.
+2. Nisha should be more mindful of her punctuality, as it can set a bad example for others.
+3. Nisha should be more</t>
   </si>
   <si>
     <t>Arindam</t>
   </si>
   <si>
-    <t>Arindam is a skilled and experienced professional who is technically sound and mature. He is able to work independently and is detail oriented. He is also able to communicate effectively and work well within a team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Arindam should strive to pay attention to detail and not forget the small things, as this can impact the organization's business goals.
-2. Arindam should be aware of his words and actions, as they can set a bad example for others in the organization.</t>
+    <t xml:space="preserve">1. Arindam has a strong technical understanding of his work and communicates effectively.
+2. Arindam is skilled in his craft and takes a mature approach to work.
+3. Arindam sometimes forgets details, but is able to course-correct when necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Arindam should focus on paying attention to details instead of neglecting them.
+2. Arindam should also focus on remembering the small things, as forgetting them can be detrimental to the organization's business goals or culture.
+3. Lastly, it is important for Ar</t>
   </si>
 </sst>
 </file>
